--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Indian Yellow-nosed Albatross_Amsterdam and St Paul.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Indian Yellow-nosed Albatross_Amsterdam and St Paul.xlsx
@@ -4271,13 +4271,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1238D867-4B3A-4BFD-9839-4465A31FA54F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{631FB124-168F-49D9-9544-13C27C7E7587}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3D9487-04D4-4E04-9B46-35D540FC1FF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C0227D-C0F4-45A4-9C83-C19D4890D0BF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58828A78-287A-4C91-8A7C-EEDA2FB9D50F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4271CD11-B209-4F04-BC2A-C714FB6357B7}"/>
 </file>